--- a/BangKeHoach-DoAnCuoiKyCTDL.xlsx
+++ b/BangKeHoach-DoAnCuoiKyCTDL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\luubai\CAU_TRUC_DU_LIEU\1 Tài liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\luubai\CAU_TRUC_DU_LIEU\DoAn\gitHub\Dictionary_TuongThong_CTDLthayTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Đinh Bách Thông</t>
-  </si>
-  <si>
-    <t>Tìm hiểu cài đặc cây nhị phân tìm kiếm</t>
   </si>
   <si>
     <t>Cài đặt cây nhị phân tìm kiếm</t>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>- Tìm hiểu các phần cơ bản về winform</t>
+  </si>
+  <si>
+    <t>Tìm hiểu cài đặt cây nhị phân tìm kiếm</t>
   </si>
 </sst>
 </file>
@@ -275,14 +275,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -294,6 +286,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -660,16 +660,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -713,17 +713,17 @@
     </row>
     <row r="3" spans="1:23" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -810,16 +810,16 @@
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="30"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -838,7 +838,7 @@
     <row r="7" spans="1:23" s="13" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>6</v>
@@ -846,20 +846,20 @@
       <c r="D7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="29">
         <v>43724</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="29">
         <v>43730</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="29">
         <v>43724</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="29">
         <v>43730</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>30</v>
+      <c r="I7" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -879,7 +879,7 @@
     <row r="8" spans="1:23" s="13" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>6</v>
@@ -887,20 +887,20 @@
       <c r="D8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="29">
         <v>43731</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="29">
         <v>43734</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="29">
         <v>43731</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="29">
         <v>43734</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>31</v>
+      <c r="I8" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -920,7 +920,7 @@
     <row r="9" spans="1:23" s="13" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>6</v>
@@ -928,20 +928,20 @@
       <c r="D9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="29">
         <v>43734</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="29">
         <v>43738</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="29">
         <v>43734</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="29">
         <v>43738</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>32</v>
+      <c r="I9" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -967,7 +967,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -985,16 +985,16 @@
     </row>
     <row r="11" spans="1:23" s="13" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="30"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1013,7 +1013,7 @@
     <row r="12" spans="1:23" s="13" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>6</v>
@@ -1021,20 +1021,20 @@
       <c r="D12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="29">
         <v>43739</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="29">
         <v>43744</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="29">
         <v>43739</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="29">
         <v>43748</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>29</v>
+      <c r="I12" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1054,26 +1054,26 @@
     <row r="13" spans="1:23" s="13" customFormat="1" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="31">
+      <c r="E13" s="29">
         <v>43739</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="29">
         <v>43758</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="29">
         <v>43739</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>27</v>
+      <c r="H13" s="29" t="s">
+        <v>26</v>
       </c>
-      <c r="I13" s="30" t="s">
-        <v>25</v>
+      <c r="I13" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1093,26 +1093,26 @@
     <row r="14" spans="1:23" s="13" customFormat="1" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="29">
         <v>43739</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="29">
         <v>43758</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="29">
         <v>43739</v>
       </c>
-      <c r="H14" s="31" t="s">
-        <v>27</v>
+      <c r="H14" s="29" t="s">
+        <v>26</v>
       </c>
-      <c r="I14" s="30" t="s">
-        <v>26</v>
+      <c r="I14" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1130,9 +1130,9 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>6</v>
@@ -1140,16 +1140,16 @@
       <c r="D15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="29">
         <v>76631</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="29">
         <v>76637</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="30" t="s">
-        <v>28</v>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1168,16 +1168,16 @@
     </row>
     <row r="16" spans="1:23" s="13" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1194,24 +1194,24 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="26"/>
-      <c r="E17" s="31">
+      <c r="E17" s="29">
         <v>76631</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="29">
         <v>76637</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="30" t="s">
-        <v>28</v>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1229,24 +1229,24 @@
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="29">
         <v>76631</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="29">
         <v>76637</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="30" t="s">
-        <v>28</v>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
